--- a/data/long_dif/P24_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_2-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 22,43</t>
+          <t>10,13; 23,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 34,84</t>
+          <t>17,41; 39,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 28,08</t>
+          <t>11,37; 26,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 26,03</t>
+          <t>13,45; 37,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,39</t>
+          <t>2,19; 22,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 35,04</t>
+          <t>12,78; 26,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,72</t>
+          <t>13,31; 27,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 29,21</t>
+          <t>17,18; 34,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,49; 28,7</t>
+          <t>8,47; 23,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18,83; 44,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 22,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 30,88</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,25; 28,48</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 26,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 28,77</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,4%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>63,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>56,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>41,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,95%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55,21%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>60,37%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>52,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44,28%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,36; 73,55</t>
+          <t>55,53; 72,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,85; 65,94</t>
+          <t>43,28; 64,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,74; 72,64</t>
+          <t>51,55; 70,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,51; 66,79</t>
+          <t>49,42; 76,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,01; 65,53</t>
+          <t>38,67; 72,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,26; 66,23</t>
+          <t>48,64; 65,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,98; 66,97</t>
+          <t>45,42; 65,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,11; 63,82</t>
+          <t>49,63; 67,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,08; 66,63</t>
+          <t>31,19; 51,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,22; 46,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54,18; 67,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47,89; 62,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52,49; 66,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>42,71; 60,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,42; 55,8</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>43,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>28,91%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 27,86</t>
+          <t>13,04; 27,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 28,35</t>
+          <t>12,13; 28,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 26,98</t>
+          <t>12,7; 29,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 33,35</t>
+          <t>4,79; 24,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 33,24</t>
+          <t>20,35; 50,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,35; 24,41</t>
+          <t>16,73; 32,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 28,63</t>
+          <t>15,54; 34,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 27,21</t>
+          <t>10,55; 23,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 23,45</t>
+          <t>33,72; 53,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,72; 50,65</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 27,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,72; 27,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,38; 24,22</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 37,07</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 47,12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 28,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 25,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 19,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 25,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 18,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 22,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,91%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,52%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 73,18</t>
+          <t>7,69; 20,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,75; 70,45</t>
+          <t>9,38; 33,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,67; 74,33</t>
+          <t>10,79; 24,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,31; 77,26</t>
+          <t>6,17; 18,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,78; 73,83</t>
+          <t>3,45; 22,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,43; 69,41</t>
+          <t>8,14; 19,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,77; 72,7</t>
+          <t>11,15; 25,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,95; 69,33</t>
+          <t>14,04; 25,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,26; 69,4</t>
+          <t>12,17; 25,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,07; 29,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 17,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 26,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 23,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 19,55</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 22,04</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>65,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>66,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>64,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>57,24%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>62,97%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 37,89</t>
+          <t>47,81; 73,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 34,45</t>
+          <t>45,38; 69,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,34; 24,79</t>
+          <t>56,5; 74,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 25,26</t>
+          <t>44,34; 74,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 24,98</t>
+          <t>44,19; 84,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,76; 23,91</t>
+          <t>61,43; 77,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,82; 30,13</t>
+          <t>56,49; 73,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 27,15</t>
+          <t>55,32; 69,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 22,67</t>
+          <t>45,94; 64,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46,29; 67,31</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57,48; 73,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54,67; 69,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>57,82; 69,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>48,11; 66,89</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>50,27; 73,75</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,61; 24,62</t>
+          <t>14,01; 42,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 25,68</t>
+          <t>16,73; 35,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 32,35</t>
+          <t>11,88; 24,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,0; 18,24</t>
+          <t>16,94; 45,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 18,29</t>
+          <t>8,72; 49,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 26,63</t>
+          <t>10,73; 23,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 19,02</t>
+          <t>11,44; 24,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,3</t>
+          <t>12,89; 24,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,49; 28,17</t>
+          <t>19,65; 35,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 31,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 30,42</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 27,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 22,39</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20,31; 38,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 38,18</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,17; 75,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,13; 67,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,41; 70,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>56,93; 70,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,38; 72,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,11; 64,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>59,08; 71,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>55,95; 67,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,18; 66,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21,33%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,78; 27,74</t>
+          <t>10,21; 28,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,92; 36,97</t>
+          <t>11,67; 25,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,18; 18,51</t>
+          <t>16,06; 31,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,47; 30,54</t>
+          <t>9,39; 19,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,57; 26,99</t>
+          <t>13,89; 29,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,0</t>
+          <t>9,32; 18,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,96; 28,03</t>
+          <t>9,04; 18,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,28; 28,99</t>
+          <t>17,77; 27,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,21</t>
+          <t>16,13; 27,71</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 30,12</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 20,54</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 19,67</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 26,96</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 21,72</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 26,67</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>64,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>65,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>57,38%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>47,92%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>61,86%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>57,01%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,27; 14,15</t>
+          <t>53,05; 71,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,81; 20,81</t>
+          <t>45,38; 66,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,01</t>
+          <t>55,24; 71,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,49</t>
+          <t>53,42; 70,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,7; 20,29</t>
+          <t>55,04; 74,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,29</t>
+          <t>58,53; 70,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,58</t>
+          <t>59,27; 72,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,97</t>
+          <t>53,91; 65,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,38</t>
+          <t>50,55; 64,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>38,65; 57,09</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>58,13; 69,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>55,34; 66,38</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>56,83; 66,33</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>54,59; 64,65</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 63,88</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,36%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>59,56%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>67,58; 79,68</t>
+          <t>14,89; 30,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>55,78; 70,15</t>
+          <t>18,55; 38,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>58,26; 71,01</t>
+          <t>9,81; 19,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>59,89; 72,1</t>
+          <t>16,83; 32,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>52,91; 65,59</t>
+          <t>7,17; 23,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>54,27; 65,9</t>
+          <t>16,78; 27,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>65,25; 74,13</t>
+          <t>15,48; 26,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>56,63; 65,68</t>
+          <t>13,79; 22,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>58,72; 66,73</t>
+          <t>16,48; 28,26</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 40,12</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17,34; 26,67</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 29,46</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 19,48</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 27,28</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 28,7</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,35; 21,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,68; 28,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,11; 19,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,36; 31,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,06; 21,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,56; 28,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,42</t>
+          <t>6,69; 14,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,25; 17,23</t>
+          <t>11,12; 21,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,61</t>
+          <t>15,98; 27,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,94</t>
+          <t>10,79; 22,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,13; 22,32</t>
+          <t>16,7; 33,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,17; 22,0</t>
+          <t>10,75; 19,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,69; 14,46</t>
+          <t>11,06; 20,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,26; 17,24</t>
+          <t>16,55; 25,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,33</t>
+          <t>12,0; 21,49</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 30,33</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 15,85</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>11,97; 18,89</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 24,99</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 20,26</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 29,58</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>55,19%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>69,8%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>61,28%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>61,6%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>65,58%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>54,9%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>75,11; 87,6</t>
+          <t>67,49; 79,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>68,67; 82,56</t>
+          <t>56,32; 71,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>63,69; 75,89</t>
+          <t>56,39; 69,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>59,81; 73,39</t>
+          <t>61,06; 75,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>57,81; 73,19</t>
+          <t>44,96; 64,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>56,8; 69,74</t>
+          <t>60,03; 71,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>69,28; 79,24</t>
+          <t>52,95; 65,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>65,15; 76,03</t>
+          <t>54,34; 65,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,1; 71,14</t>
+          <t>56,26; 68,89</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 64,67</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>64,98; 73,66</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>56,26; 66,2</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>57,16; 66,07</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>60,73; 70,84</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>47,55; 61,78</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>17,8%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,15</t>
+          <t>11,67; 21,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>8,76; 19,62</t>
+          <t>15,2; 27,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>9,12; 19,18</t>
+          <t>11,14; 20,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,26; 25,92</t>
+          <t>10,87; 21,65</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>13,24; 25,87</t>
+          <t>13,38; 29,9</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,01</t>
+          <t>14,74; 25,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,03</t>
+          <t>19,74; 31,39</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,69</t>
+          <t>14,58; 23,53</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,33</t>
+          <t>15,85; 26,53</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 30,73</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 21,7</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 28,26</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 20,38</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 22,51</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 27,82</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>9,09; 42,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>7,31; 21,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,18; 21,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,09; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,89; 26,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,31; 14,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,23; 26,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>12,77; 21,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>63,54; 86,96</t>
+          <t>4,52; 13,12</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>49,66; 80,38</t>
+          <t>5,7; 14,82</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>63,92; 80,5</t>
+          <t>12,11; 21,81</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>64,25; 79,15</t>
+          <t>6,89; 17,56</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>60,87; 77,0</t>
+          <t>17,28; 36,35</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>54,45; 71,37</t>
+          <t>9,07; 19,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>68,32; 81,05</t>
+          <t>10,17; 21,87</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>59,81; 75,47</t>
+          <t>11,82; 21,74</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>61,23; 72,47</t>
+          <t>13,88; 29,09</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 33,57</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 14,83</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 16,48</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 20,48</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 21,27</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 31,41</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>75,84%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>75,23%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>74,15%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>70,99%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>66,71%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>70,07%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>54,75%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,87; 31,52</t>
+          <t>75,64; 87,52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>6,2; 18,11</t>
+          <t>68,68; 82,7</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,31; 21,85</t>
+          <t>63,29; 75,8</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,59; 19,82</t>
+          <t>67,27; 81,75</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>14,03; 27,75</t>
+          <t>39,35; 61,28</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>11,99; 25,18</t>
+          <t>59,28; 72,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,31; 21,49</t>
+          <t>57,18; 73,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,37</t>
+          <t>56,37; 69,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,01</t>
+          <t>56,29; 73,0</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>48,47; 67,33</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>68,76; 78,72</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>65,61; 75,78</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>61,97; 71,33</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>63,56; 75,4</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>46,73; 61,47</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,84</t>
+          <t>5,66; 14,58</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,4</t>
+          <t>9,62; 21,31</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,62</t>
+          <t>9,09; 18,48</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,9</t>
+          <t>8,78; 20,52</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,67</t>
+          <t>15,56; 33,14</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>18,31; 23,1</t>
+          <t>13,97; 26,88</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,32</t>
+          <t>12,99; 25,7</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,45</t>
+          <t>15,19; 26,37</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>17,79; 21,39</t>
+          <t>8,9; 21,32</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 25,82</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 19,43</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 20,6</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 20,77</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 18,44</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 26,44</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>63,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>67,65; 74,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>58,89; 67,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>62,77; 69,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>63,04; 69,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>60,53; 66,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>58,24; 63,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>66,38; 71,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>61,0; 66,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>61,29; 65,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,0</t>
+          <t>3,03; 11,45</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,7</t>
+          <t>8,66; 34,23</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,79</t>
+          <t>7,66; 20,96</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,91</t>
+          <t>5,91; 19,94</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,94</t>
+          <t>0,0; 12,89</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,52</t>
+          <t>9,4; 20,34</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>16,29; 20,52</t>
+          <t>6,61; 18,24</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,54</t>
+          <t>14,75; 26,91</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>15,3; 18,37</t>
+          <t>6,96; 19,74</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 22,16</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 15,51</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 22,89</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 21,89</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>7,77; 17,11</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 13,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>78,82%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>71,29%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>72,48%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>78,6%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>77,36%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>68,19%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>61,16%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>69,4%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>67,78%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>75,37%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>69,49%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>66,11%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>73,41%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>71,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>63,12; 86,57</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>55,36; 80,02</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>64,06; 80,01</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>69,05; 86,62</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>65,65; 87,05</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>65,37; 79,19</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>59,86; 76,59</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>53,53; 68,84</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 78,14</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>52,49; 79,23</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>68,76; 80,49</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>61,16; 75,53</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>60,14; 71,42</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>65,54; 79,73</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>62,93; 79,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 32,12</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 18,54</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 22,3</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 16,73</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 31,03</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 18,72</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 27,3</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>12,79; 26,89</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 30,14</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 37,33</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 22,01</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 22,0</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 22,74</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 22,45</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 29,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 14,65</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 21,55</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 20,97</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>11,99; 18,08</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 19,75</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 16,82</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 17,21</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 23,05</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 19,7</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 24,81</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 14,81</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 18,19</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 21,3</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 17,82</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 21,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>70,57%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>65,93%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>67,25%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>62,07%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>63,69%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>60,89%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>59,2%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>68,54%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>63,14%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>58,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 74,2</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>58,42; 66,85</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>62,63; 69,12</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>62,61; 71,75</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>56,76; 67,28</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>63,34; 69,34</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>60,59; 66,74</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>58,26; 63,87</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>55,6; 62,71</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>50,02; 58,96</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>65,99; 70,9</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>60,84; 65,96</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>61,25; 65,67</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 65,99</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>54,64; 61,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>22,07%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 21,93</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 23,63</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 18,64</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 22,38</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 27,29</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 21,72</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 24,38</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 20,52</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 26,98</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 28,89</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 20,57</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 22,79</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 18,95</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 23,53</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 26,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_2-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
